--- a/Data/EC/NIT-9012085763.xlsx
+++ b/Data/EC/NIT-9012085763.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88EC4C1-48E1-464A-ADA5-9A42F37B27EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A23906C-FFE3-420A-AB07-05CFA6A58368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C1F69317-F7E1-41AC-A04A-07A2CEE86999}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BF96250-9CE8-401D-AE77-954FD653FA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,52 +65,52 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22815519</t>
+  </si>
+  <si>
+    <t>YAMADIS CAMARGO MARQUEZ</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1049566193</t>
+  </si>
+  <si>
+    <t>GINA MARCELA CAMARGO MONROY</t>
+  </si>
+  <si>
+    <t>42365405</t>
+  </si>
+  <si>
+    <t>OLGA ISABEL FLOREZ MEZA</t>
+  </si>
+  <si>
     <t>1095811770</t>
   </si>
   <si>
     <t>MARCELA MERIÑO OSPINO</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>42365405</t>
-  </si>
-  <si>
-    <t>OLGA ISABEL FLOREZ MEZA</t>
-  </si>
-  <si>
-    <t>1049566193</t>
-  </si>
-  <si>
-    <t>GINA MARCELA CAMARGO MONROY</t>
-  </si>
-  <si>
-    <t>22815519</t>
-  </si>
-  <si>
-    <t>YAMADIS CAMARGO MARQUEZ</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B8C47C-D4D0-4027-E586-ACAB72927EE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1847677-3EE2-EBA7-3096-8A8A343C87E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,28 +875,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2076A33-D909-477C-80AB-F7E4B45EAEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D327BA1-AB47-49B8-8C52-05C4F7F473F5}">
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -909,7 +909,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -920,7 +920,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -931,7 +931,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -942,8 +942,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -958,8 +958,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -974,8 +974,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -990,8 +990,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1062,7 +1062,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1108,18 +1108,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1131,18 +1131,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1154,18 +1154,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1177,21 +1177,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1200,18 +1200,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1223,18 +1223,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1246,18 +1246,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1269,18 +1269,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1292,18 +1292,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1315,21 +1315,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1338,18 +1338,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1361,18 +1361,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1384,18 +1384,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1407,18 +1407,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1430,18 +1430,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1453,21 +1453,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1476,18 +1476,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1499,18 +1499,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1522,18 +1522,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1545,21 +1545,21 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F38" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1568,21 +1568,21 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1591,21 +1591,21 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1614,21 +1614,21 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="24">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="24">
         <v>781242</v>
@@ -1637,7 +1637,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="32" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="32" t="s">
         <v>33</v>
       </c>

--- a/Data/EC/NIT-9012085763.xlsx
+++ b/Data/EC/NIT-9012085763.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A23906C-FFE3-420A-AB07-05CFA6A58368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8749366F-E2EE-4F9D-95F7-F7EE100F8202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BF96250-9CE8-401D-AE77-954FD653FA8C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EC50B77-3EF9-4270-98F6-B64489244249}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,52 +65,52 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1095811770</t>
+  </si>
+  <si>
+    <t>MARCELA MERIÑO OSPINO</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>22815519</t>
   </si>
   <si>
     <t>YAMADIS CAMARGO MARQUEZ</t>
   </si>
   <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1049566193</t>
+  </si>
+  <si>
+    <t>GINA MARCELA CAMARGO MONROY</t>
+  </si>
+  <si>
+    <t>42365405</t>
+  </si>
+  <si>
+    <t>OLGA ISABEL FLOREZ MEZA</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
     <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1049566193</t>
-  </si>
-  <si>
-    <t>GINA MARCELA CAMARGO MONROY</t>
-  </si>
-  <si>
-    <t>42365405</t>
-  </si>
-  <si>
-    <t>OLGA ISABEL FLOREZ MEZA</t>
-  </si>
-  <si>
-    <t>1095811770</t>
-  </si>
-  <si>
-    <t>MARCELA MERIÑO OSPINO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -209,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1847677-3EE2-EBA7-3096-8A8A343C87E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14A07BB-1E45-7792-E218-5D3A3999C79D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D327BA1-AB47-49B8-8C52-05C4F7F473F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD05D92-6321-4675-907E-9974EA7911DC}">
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1090,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1113,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1136,10 +1136,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1182,16 +1182,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1205,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1228,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1251,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1297,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1320,16 +1320,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1343,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1366,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1389,13 +1389,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1412,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1435,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1458,16 +1458,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>20833</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1481,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1504,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1527,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1550,16 +1550,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1573,16 +1573,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1596,16 +1596,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1619,16 +1619,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="24">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G41" s="24">
         <v>781242</v>

--- a/Data/EC/NIT-9012085763.xlsx
+++ b/Data/EC/NIT-9012085763.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8749366F-E2EE-4F9D-95F7-F7EE100F8202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD20B109-CBC1-4B2C-8DF4-4767BE81FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EC50B77-3EF9-4270-98F6-B64489244249}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E65C4EFD-D873-4F0B-9E1F-6EA2B428468E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -224,7 +222,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,29 +418,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +459,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14A07BB-1E45-7792-E218-5D3A3999C79D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B83297B-9E94-A48F-815D-D168C8C04B98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD05D92-6321-4675-907E-9974EA7911DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A650A0-C9BF-4901-8AA5-BC4AD7EF8961}">
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -898,49 +904,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -948,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -964,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9012085763</v>
       </c>
@@ -980,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>770810</v>
       </c>
@@ -1049,18 +1055,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1072,18 +1078,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1095,18 +1101,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1118,18 +1124,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1141,18 +1147,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1164,18 +1170,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1187,18 +1193,18 @@
       <c r="D22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1210,18 +1216,18 @@
       <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1233,18 +1239,18 @@
       <c r="D24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1256,18 +1262,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1279,18 +1285,18 @@
       <c r="D26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1302,18 +1308,18 @@
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1325,18 +1331,18 @@
       <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1348,18 +1354,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1371,18 +1377,18 @@
       <c r="D30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1394,18 +1400,18 @@
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1417,18 +1423,18 @@
       <c r="D32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1440,18 +1446,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1463,18 +1469,18 @@
       <c r="D34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1486,18 +1492,18 @@
       <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1509,18 +1515,18 @@
       <c r="D36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1532,18 +1538,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1555,18 +1561,18 @@
       <c r="D38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>20833</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1578,18 +1584,18 @@
       <c r="D39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>20833</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1601,47 +1607,47 @@
       <c r="D40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>20833</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="26">
         <v>20833</v>
       </c>
-      <c r="G41" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
+      <c r="G41" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="34"/>
       <c r="H46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1649,10 +1655,10 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="34"/>
       <c r="H47" s="1" t="s">
         <v>35</v>
       </c>
